--- a/美好的回数据字典.xlsx
+++ b/美好的回数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>美好的回考勤系统数据库设计</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Cno</t>
   </si>
   <si>
-    <t>nvchar(20)</t>
+    <t>varchar(20)</t>
   </si>
   <si>
     <t>not null</t>
@@ -112,7 +112,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>课程状态 0正常 1临时加课 主键</t>
+    <t>课程状态 0正常 1临时加课 2临时取消 主键</t>
   </si>
   <si>
     <t>Cname</t>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">课程名 </t>
   </si>
   <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>主讲教师</t>
+    <t>Tno</t>
+  </si>
+  <si>
+    <t>教师号 外键</t>
   </si>
   <si>
     <t>Type</t>
@@ -139,12 +139,21 @@
     <t>Info</t>
   </si>
   <si>
-    <t>nvchar(15)</t>
+    <t>varchar(15)</t>
   </si>
   <si>
     <t>重复备注信息</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>CLno</t>
+  </si>
+  <si>
     <t>班级号 外键</t>
   </si>
   <si>
@@ -178,7 +187,7 @@
     <t>Imgpath</t>
   </si>
   <si>
-    <t>nvchar(255)</t>
+    <t>varchar(255)</t>
   </si>
   <si>
     <t>证件照路径</t>
@@ -190,10 +199,7 @@
     <t>专业号</t>
   </si>
   <si>
-    <t>教师表(Teathers)</t>
-  </si>
-  <si>
-    <t>Tno</t>
+    <t>教师表(Teachers)</t>
   </si>
   <si>
     <t>教师编号 主键</t>
@@ -202,6 +208,9 @@
     <t>Tname</t>
   </si>
   <si>
+    <t>专业号 外键</t>
+  </si>
+  <si>
     <t>管理员表(Admins)</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>班级表(Class)</t>
   </si>
   <si>
-    <t>CLno</t>
-  </si>
-  <si>
     <t>班级号 主键</t>
   </si>
   <si>
@@ -229,6 +235,12 @@
     <t>班级名</t>
   </si>
   <si>
+    <t>Mno</t>
+  </si>
+  <si>
+    <t>班主任号</t>
+  </si>
+  <si>
     <t>考勤表(Attend)</t>
   </si>
   <si>
@@ -241,21 +253,30 @@
     <t>课程号 外键</t>
   </si>
   <si>
-    <t>教师号 外键</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>状态 0未开始 1进行中 2结束</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
     <t>专业表(Major)</t>
   </si>
   <si>
-    <t>Mno</t>
-  </si>
-  <si>
     <t>专业号 主键</t>
   </si>
   <si>
@@ -281,9 +302,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>考勤日期</t>
@@ -297,12 +315,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,10 +362,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,14 +406,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +422,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +452,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -428,10 +460,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,15 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -467,15 +490,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,25 +533,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,157 +629,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,21 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -871,6 +880,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,11 +916,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,9 +940,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +966,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,12 +1126,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,6 +1151,12 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1510,31 +1534,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G119"/>
+  <dimension ref="B1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="1.63333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.45" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.4666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="46.45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.4666666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.15" customHeight="1" spans="2:6">
+    <row r="1" ht="20.2" customHeight="1" spans="2:6">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="20.15" customHeight="1" spans="2:6">
+    <row r="2" ht="20.2" customHeight="1" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1567,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="20.15" customHeight="1" spans="2:6">
+    <row r="3" ht="20.2" customHeight="1" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1648,1095 +1672,1148 @@
       <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:6">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" ht="17.25" spans="2:2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:6">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:6">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="2:6">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="2:6">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="2:6">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="2:6">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="2:6">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="D22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="2:6">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="2:6">
+      <c r="B24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" ht="17.25" spans="2:2">
+      <c r="B26" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="2:6">
+      <c r="B27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="2:6">
+      <c r="B28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="2:6">
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="2:6">
+      <c r="B30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="2:6">
+      <c r="B31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="2:6">
+      <c r="B32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="2:6">
+      <c r="B33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="2:6">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" ht="17.25" spans="2:6">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" ht="17.25" spans="2:6">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" ht="17.25" spans="2:6">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" ht="17.25" spans="2:6">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" ht="17.25" spans="2:2">
+      <c r="B40" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="2:6">
+      <c r="B41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="2:6">
+      <c r="B42" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="2:6">
+      <c r="B43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="2:6">
+      <c r="B44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="2:6">
+      <c r="B45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="2:6">
+      <c r="B46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="2:6">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" ht="17.25" spans="2:6">
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" ht="17.25" spans="2:6">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" ht="17.25" spans="2:6">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" ht="17.25" spans="2:6">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" ht="17.25" spans="2:6">
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" ht="17.25" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="2:6">
+      <c r="B55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="2:6">
+      <c r="B56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="2:6">
+      <c r="B57" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="2:6">
+      <c r="B58" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="2:6">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" ht="17.25" spans="2:6">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" ht="17.25" spans="2:6">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" ht="17.25" spans="2:6">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" ht="17.25" spans="2:6">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" ht="17.25" spans="2:6">
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" ht="17.25" spans="2:6">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" ht="17.25" spans="2:6">
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" ht="17.25" spans="2:2">
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" ht="17.25" spans="2:6">
+      <c r="B69" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" ht="17.25" spans="2:6">
+      <c r="B70" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="17.25" spans="2:6">
+      <c r="B71" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" ht="17.25" spans="2:6">
+      <c r="B72" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="18"/>
+      <c r="F72" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" ht="17.25" spans="2:6">
+      <c r="B73" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" ht="17.25" spans="2:6">
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" ht="17.25" spans="2:6">
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" ht="17.25" spans="2:6">
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" ht="17.25" spans="2:6">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" ht="17.25" spans="2:6">
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" ht="17.25" spans="2:6">
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" ht="17.25" spans="2:6">
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" ht="17.25" spans="2:2">
+      <c r="B82" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" spans="2:6">
+      <c r="B83" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" ht="17.25" spans="2:6">
+      <c r="B84" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" ht="17.25" spans="2:6">
+      <c r="B85" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="D85" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" ht="17.25" spans="2:6">
+      <c r="B86" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" spans="2:6">
+      <c r="B87" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" ht="17.25" spans="2:6">
+      <c r="B88" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" ht="17.25" spans="2:6">
+      <c r="B89" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="16"/>
-    </row>
-    <row r="25" ht="17.25" spans="2:2">
-      <c r="B25" s="16" t="s">
+      <c r="D89" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="2:6">
-      <c r="B26" s="17" t="s">
+    <row r="90" ht="17.25" spans="2:6">
+      <c r="B90" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" ht="17.25" spans="2:6">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" ht="17.25" spans="2:6">
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" ht="17.25" spans="2:2">
+      <c r="B94" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" ht="17.25" spans="2:6">
+      <c r="B95" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C95" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D95" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E95" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F95" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="17.25" spans="2:6">
-      <c r="B27" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="20" t="s">
+    <row r="96" ht="17.25" spans="2:6">
+      <c r="B96" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="2:6">
-      <c r="B28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" spans="2:6">
+      <c r="B97" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" ht="17.25" spans="2:6">
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" ht="17.25" spans="2:6">
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" ht="17.25" spans="2:6">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" ht="17.25" spans="2:6">
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" ht="17.25" spans="2:6">
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" ht="17.25" spans="2:6">
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+    </row>
+    <row r="104" ht="17.25" spans="2:6">
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" ht="17.25" spans="2:6">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" ht="17.25" spans="2:6">
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+    </row>
+    <row r="108" ht="17.25" spans="2:2">
+      <c r="B108" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" ht="17.25" spans="2:6">
+      <c r="B109" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" ht="17.25" spans="2:6">
+      <c r="B110" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" ht="17.25" spans="2:6">
+      <c r="B111" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" ht="17.25" spans="2:6">
+      <c r="B112" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" ht="17.25" spans="2:6">
-      <c r="B29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="C112" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="D112" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" ht="17.25" spans="2:6">
+      <c r="B113" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" ht="17.25" spans="2:6">
-      <c r="B30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="2:6">
-      <c r="B31" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" spans="2:6">
-      <c r="B32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" spans="2:6">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" ht="17.25" spans="2:6">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" ht="17.25" spans="2:6">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" ht="17.25" spans="2:6">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" ht="17.25" spans="2:6">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" ht="17.25" spans="2:2">
-      <c r="B39" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="2:6">
-      <c r="B40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="2:6">
-      <c r="B41" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="2:6">
-      <c r="B42" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="2:6">
-      <c r="B43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="2:6">
-      <c r="B44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="2:6">
-      <c r="B45" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="2:6">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" ht="17.25" spans="2:6">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" ht="17.25" spans="2:6">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" ht="17.25" spans="2:6">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" ht="17.25" spans="2:6">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" ht="17.25" spans="2:6">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" ht="17.25" spans="2:2">
-      <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" ht="17.25" spans="2:6">
-      <c r="B54" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="2:6">
-      <c r="B55" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="2:6">
-      <c r="B56" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" ht="17.25" spans="2:6">
-      <c r="B57" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" ht="17.25" spans="2:6">
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" ht="17.25" spans="2:6">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-    </row>
-    <row r="60" ht="17.25" spans="2:6">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" ht="17.25" spans="2:6">
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" ht="17.25" spans="2:6">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" ht="17.25" spans="2:6">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" ht="17.25" spans="2:6">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" ht="17.25" spans="2:6">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" ht="17.25" spans="2:2">
-      <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" ht="17.25" spans="2:6">
-      <c r="B68" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" ht="17.25" spans="2:6">
-      <c r="B69" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" ht="17.25" spans="2:6">
-      <c r="B70" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" ht="17.25" spans="2:6">
-      <c r="B71" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" ht="17.25" spans="2:6">
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" ht="17.25" spans="2:6">
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" ht="17.25" spans="2:6">
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" ht="17.25" spans="2:6">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" ht="17.25" spans="2:6">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" ht="17.25" spans="2:6">
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" ht="17.25" spans="2:6">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" ht="17.25" spans="2:6">
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" ht="17.25" spans="2:2">
-      <c r="B81" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" ht="17.25" spans="2:6">
-      <c r="B82" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" ht="17.25" spans="2:6">
-      <c r="B83" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" ht="17.25" spans="2:6">
-      <c r="B84" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" ht="17.25" spans="2:6">
-      <c r="B85" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" ht="17.25" spans="2:6">
-      <c r="B86" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" ht="17.25" spans="2:6">
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-    </row>
-    <row r="88" ht="17.25" spans="2:6">
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-    </row>
-    <row r="89" ht="17.25" spans="2:6">
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-    </row>
-    <row r="90" ht="17.25" spans="2:6">
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-    </row>
-    <row r="91" ht="17.25" spans="2:6">
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-    </row>
-    <row r="93" ht="17.25" spans="2:2">
-      <c r="B93" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" ht="17.25" spans="2:6">
-      <c r="B94" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" ht="17.25" spans="2:6">
-      <c r="B95" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" ht="17.25" spans="2:6">
-      <c r="B96" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" ht="17.25" spans="2:6">
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" ht="17.25" spans="2:6">
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" ht="17.25" spans="2:6">
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-    </row>
-    <row r="100" ht="17.25" spans="2:6">
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-    </row>
-    <row r="101" ht="17.25" spans="2:6">
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-    </row>
-    <row r="102" ht="17.25" spans="2:6">
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-    </row>
-    <row r="103" ht="17.25" spans="2:6">
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" ht="17.25" spans="2:6">
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" ht="17.25" spans="2:6">
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="107" ht="17.25" spans="2:2">
-      <c r="B107" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" ht="17.25" spans="2:6">
-      <c r="B108" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" ht="17.25" spans="2:6">
-      <c r="B109" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="110" ht="17.25" spans="2:6">
-      <c r="B110" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" ht="17.25" spans="2:6">
-      <c r="B111" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="112" ht="17.25" spans="2:6">
-      <c r="B112" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" ht="17.25" spans="2:6">
-      <c r="B113" s="19" t="s">
+      <c r="D113" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" ht="17.25" spans="2:6">
+      <c r="B114" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C114" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" ht="17.25" spans="2:6">
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
+      <c r="D114" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="115" ht="17.25" spans="2:6">
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" ht="17.25" spans="2:6">
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" ht="17.25" spans="2:6">
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" ht="17.25" spans="2:6">
-      <c r="B118" s="19"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" ht="17.25" spans="2:6">
-      <c r="B119" s="19"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+    </row>
+    <row r="120" ht="17.25" spans="2:6">
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/美好的回数据字典.xlsx
+++ b/美好的回数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
   <si>
     <t>美好的回考勤系统数据库设计</t>
   </si>
@@ -112,7 +112,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>课程状态 0正常 1临时加课 2临时取消 主键</t>
+    <t>课程状态 0正常 1临时加课 2临时取消  主键</t>
   </si>
   <si>
     <t>Cname</t>
@@ -145,127 +145,127 @@
     <t>重复备注信息</t>
   </si>
   <si>
+    <t>CLno</t>
+  </si>
+  <si>
+    <t>班级号 外键</t>
+  </si>
+  <si>
+    <t>学生表(students)</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>学号 主键</t>
+  </si>
+  <si>
+    <t>Sname</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>Sclass</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>nvchar(30)</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Imgpath</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>证件照路径</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>专业号</t>
+  </si>
+  <si>
+    <t>教师表(Teachers)</t>
+  </si>
+  <si>
+    <t>教师编号 主键</t>
+  </si>
+  <si>
+    <t>Tname</t>
+  </si>
+  <si>
+    <t>专业号 外键</t>
+  </si>
+  <si>
+    <t>管理员表(Admins)</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>管理员编号</t>
+  </si>
+  <si>
+    <t>Aname</t>
+  </si>
+  <si>
+    <t>班级表(Class)</t>
+  </si>
+  <si>
+    <t>班级号 主键</t>
+  </si>
+  <si>
+    <t>CLname</t>
+  </si>
+  <si>
+    <t>班级名</t>
+  </si>
+  <si>
+    <t>Mno</t>
+  </si>
+  <si>
+    <t>班主任号</t>
+  </si>
+  <si>
+    <t>考勤表(Attend)</t>
+  </si>
+  <si>
+    <t>Atno</t>
+  </si>
+  <si>
+    <t>考勤号 主键</t>
+  </si>
+  <si>
+    <t>课程号 外键</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>状态 0未开始 1进行中 2结束</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
     <t>开始时间</t>
-  </si>
-  <si>
-    <t>CLno</t>
-  </si>
-  <si>
-    <t>班级号 外键</t>
-  </si>
-  <si>
-    <t>学生表(students)</t>
-  </si>
-  <si>
-    <t>Sno</t>
-  </si>
-  <si>
-    <t>学号 主键</t>
-  </si>
-  <si>
-    <t>Sname</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>Sclass</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>nvchar(30)</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>Imgpath</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>证件照路径</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>专业号</t>
-  </si>
-  <si>
-    <t>教师表(Teachers)</t>
-  </si>
-  <si>
-    <t>教师编号 主键</t>
-  </si>
-  <si>
-    <t>Tname</t>
-  </si>
-  <si>
-    <t>专业号 外键</t>
-  </si>
-  <si>
-    <t>管理员表(Admins)</t>
-  </si>
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>管理员编号</t>
-  </si>
-  <si>
-    <t>Aname</t>
-  </si>
-  <si>
-    <t>班级表(Class)</t>
-  </si>
-  <si>
-    <t>班级号 主键</t>
-  </si>
-  <si>
-    <t>CLname</t>
-  </si>
-  <si>
-    <t>班级名</t>
-  </si>
-  <si>
-    <t>Mno</t>
-  </si>
-  <si>
-    <t>班主任号</t>
-  </si>
-  <si>
-    <t>考勤表(Attend)</t>
-  </si>
-  <si>
-    <t>Atno</t>
-  </si>
-  <si>
-    <t>考勤号 主键</t>
-  </si>
-  <si>
-    <t>课程号 外键</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>状态 0未开始 1进行中 2结束</t>
-  </si>
-  <si>
-    <t>startdate</t>
   </si>
   <si>
     <t>enddate</t>
@@ -315,12 +315,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,14 +362,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,41 +413,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,10 +453,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,30 +486,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,97 +527,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,73 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,54 +846,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -923,6 +869,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -937,27 +942,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,19 +960,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -987,13 +981,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,98 +999,98 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1151,12 +1145,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G120"/>
+  <dimension ref="B1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:D114"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1825,7 +1813,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>28</v>
@@ -1835,44 +1823,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" ht="17.25" spans="2:6">
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" ht="17.25" spans="2:2">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="18" t="s">
+    </row>
+    <row r="26" ht="17.25" spans="2:6">
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="2:6">
+      <c r="B27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" ht="17.25" spans="2:2">
-      <c r="B26" s="14" t="s">
+      <c r="D27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="2:6">
-      <c r="B27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="2:6">
@@ -1880,7 +1868,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>28</v>
@@ -1895,52 +1883,52 @@
         <v>50</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="2:6">
       <c r="B30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="2:6">
       <c r="B31" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="2:6">
       <c r="B32" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>28</v>
@@ -1951,19 +1939,11 @@
       </c>
     </row>
     <row r="33" ht="17.25" spans="2:6">
-      <c r="B33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" ht="17.25" spans="2:6">
       <c r="B34" s="17"/>
@@ -1993,114 +1973,114 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" ht="17.25" spans="2:6">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" ht="17.25" spans="2:2">
-      <c r="B40" s="20" t="s">
-        <v>61</v>
+    <row r="38" spans="2:6">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" ht="17.25" spans="2:2">
+      <c r="B39" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="2:6">
+      <c r="B40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="2:6">
-      <c r="B41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>3</v>
+      <c r="B41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="2:6">
       <c r="B42" s="17" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="18"/>
-      <c r="F42" s="21" t="s">
-        <v>62</v>
+      <c r="F42" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="2:6">
       <c r="B43" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="2:6">
       <c r="B44" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="18"/>
-      <c r="F44" s="21" t="s">
-        <v>64</v>
+      <c r="F44" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="2:6">
       <c r="B45" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="2:6">
-      <c r="B46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" ht="17.25" spans="2:6">
       <c r="B47" s="17"/>
@@ -2137,40 +2117,48 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" ht="17.25" spans="2:6">
-      <c r="B52" s="17"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" ht="17.25" spans="2:2">
-      <c r="B54" s="1" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" ht="17.25" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="2:6">
+      <c r="B54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="2:6">
+      <c r="B55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="55" ht="17.25" spans="2:6">
-      <c r="B55" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="2:6">
@@ -2178,45 +2166,37 @@
         <v>66</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="2:6">
       <c r="B57" s="17" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="2:6">
-      <c r="B58" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" ht="17.25" spans="2:6">
       <c r="B59" s="17"/>
@@ -2267,48 +2247,56 @@
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
     </row>
-    <row r="66" ht="17.25" spans="2:6">
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" ht="17.25" spans="2:2">
-      <c r="B68" s="1" t="s">
-        <v>69</v>
+    <row r="66" spans="2:6">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" ht="17.25" spans="2:2">
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" spans="2:6">
+      <c r="B68" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="17.25" spans="2:6">
-      <c r="B69" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>3</v>
+      <c r="B69" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="17.25" spans="2:6">
       <c r="B70" s="17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>28</v>
@@ -2323,19 +2311,19 @@
         <v>71</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" ht="17.25" spans="2:6">
       <c r="B72" s="17" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>27</v>
@@ -2344,24 +2332,16 @@
         <v>28</v>
       </c>
       <c r="E72" s="18"/>
-      <c r="F72" s="21" t="s">
-        <v>64</v>
+      <c r="F72" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="17.25" spans="2:6">
-      <c r="B73" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="18" t="s">
-        <v>74</v>
-      </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" ht="17.25" spans="2:6">
       <c r="B74" s="17"/>
@@ -2405,45 +2385,53 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" ht="17.25" spans="2:6">
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-    </row>
-    <row r="82" ht="17.25" spans="2:2">
-      <c r="B82" s="1" t="s">
+    <row r="80" spans="2:6">
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+    </row>
+    <row r="81" ht="17.25" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" spans="2:6">
+      <c r="B82" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" spans="2:6">
+      <c r="B83" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="83" ht="17.25" spans="2:6">
-      <c r="B83" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="2:6">
       <c r="B84" s="17" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>27</v>
@@ -2453,12 +2441,12 @@
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="2:6">
       <c r="B85" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>27</v>
@@ -2468,22 +2456,20 @@
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="18" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="2:6">
       <c r="B86" s="17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D86" s="18"/>
       <c r="E86" s="18"/>
       <c r="F86" s="18" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" ht="17.25" spans="2:6">
@@ -2491,9 +2477,11 @@
         <v>79</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18" t="s">
         <v>80</v>
@@ -2504,45 +2492,37 @@
         <v>81</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E88" s="18"/>
-      <c r="F88" s="21" t="s">
-        <v>82</v>
+      <c r="F88" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="2:6">
       <c r="B89" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="18" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="17.25" spans="2:6">
-      <c r="B90" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="18"/>
-      <c r="F90" s="18" t="s">
-        <v>85</v>
-      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" ht="17.25" spans="2:6">
       <c r="B91" s="17"/>
@@ -2551,67 +2531,67 @@
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
     </row>
-    <row r="92" ht="17.25" spans="2:6">
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" ht="17.25" spans="2:2">
-      <c r="B94" s="1" t="s">
+    <row r="92" spans="2:6">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" ht="17.25" spans="2:2">
+      <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="94" ht="17.25" spans="2:6">
+      <c r="B94" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="95" ht="17.25" spans="2:6">
-      <c r="B95" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>3</v>
+      <c r="B95" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="2:6">
       <c r="B96" s="17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" ht="17.25" spans="2:6">
-      <c r="B97" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
-      <c r="F97" s="18" t="s">
-        <v>89</v>
-      </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" ht="17.25" spans="2:6">
       <c r="B98" s="17"/>
@@ -2669,38 +2649,46 @@
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
     </row>
-    <row r="106" ht="17.25" spans="2:6">
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-    </row>
-    <row r="108" ht="17.25" spans="2:2">
-      <c r="B108" s="1" t="s">
+    <row r="107" ht="17.25" spans="2:2">
+      <c r="B107" s="1" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="108" ht="17.25" spans="2:6">
+      <c r="B108" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="109" ht="17.25" spans="2:6">
-      <c r="B109" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>3</v>
+      <c r="B109" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="110" ht="17.25" spans="2:6">
       <c r="B110" s="17" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>27</v>
@@ -2710,12 +2698,12 @@
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" ht="17.25" spans="2:6">
       <c r="B111" s="17" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>27</v>
@@ -2725,53 +2713,45 @@
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" ht="17.25" spans="2:6">
       <c r="B112" s="17" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113" ht="17.25" spans="2:6">
       <c r="B113" s="17" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" ht="17.25" spans="2:6">
-      <c r="B114" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="18"/>
-      <c r="F114" s="18" t="s">
-        <v>97</v>
-      </c>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" ht="17.25" spans="2:6">
       <c r="B115" s="17"/>
@@ -2807,13 +2787,6 @@
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
       <c r="F119" s="18"/>
-    </row>
-    <row r="120" ht="17.25" spans="2:6">
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="24">
